--- a/data/alarm/L7_alarm.xlsx
+++ b/data/alarm/L7_alarm.xlsx
@@ -26,6 +26,9 @@
     <sheet name="2021-12-17" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="2021-12-18" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="2021-12-19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="2021-12-21" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="2021-12-22" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="2021-12-23" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45782,6 +45785,9020 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alarm_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>WORKCELL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>alarm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>390</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Station 1 Vehicle in-position sensor error/I5.3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carrier 2# product assembly anomaly, please check the carrier and gripper!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>303</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flexible vibrating plate material preparation timeout</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2# gripper feeding is abnormal. Press the start button after 
+feeding level processing to continue operation.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>364</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The number of consecutive NGs has arrived, please check the equipment!</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>360</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Station 1 carrier C  sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>192</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2# gripper lift cylinder status does not match with auto status/Q16.6-Q16.7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>189</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1# gripper lift cylinder status does not match with auto status/Q16.4-Q16.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>198</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1#Lead straightening cylinder status does not match with auto status/Q15.6-Q15.7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>169</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Positioning lift up extended/I15.1-Q14.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>129</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1# robot loading  does not match the automatic state /Q10.2-Q10.3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>177</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1# gripper lift cylinder status does not match with auto status/Q17.0-Q17.1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>196</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1#Lead straightening cylinder clamp abnormal sensing error/I15.6-Q15.6</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>195</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1#Lead straightening lifting cylinder status does not match with auto status/Q15.4-Q15.5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>136</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Robot gripper cylinder 2# clamping abnormal sensing error/I11.0-Q11.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>138</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 2# status does not match with auto status /Q11.0-Q11.1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>175</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1# gripper cylinder clamping abnormal sensing error/I17.1-Q17.1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>162</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lead straightening cylinder status does not match with auto status/Q5.6-Q5.7</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>127</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1# robot loading down abnormal sensing error  /Q10.3-I10.3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>180</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2# gripper lift cylinder status does not match with auto status/Q17.0-Q17.1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>171</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Positioning lift cylinder status does not match with auto status/Q14.4-Q14.5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>61</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pump 1# completion signal timeout</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>406</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Station 3 D material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>310</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1# clamping gripper take material abnormally, first to Feed take material position to deal with and then press start button can continue to run.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n">
+        <v>141</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Lead straightening lifting cylinder status does not match with auto status/Q11.4-Q11.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>135</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 1# status does not match with auto status /Q10.6-Q10.7</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="n">
+        <v>183</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1# gripper lift cylinder status does not match with auto status/Q16.0-Q16.1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="n">
+        <v>186</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2# gripper lift cylinder status does not match with auto status/Q16.0-Q16.1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Injection pump alarming</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n">
+        <v>190</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2# gripper cylinder clamping abnormal sensing error/I16.7-Q16.7</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n">
+        <v>59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Abnormal alarm of negative limit of X-axis  servo motor</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n">
+        <v>132</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2# robot loading  does not match the automatic state/Q10.4-Q10.5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n">
+        <v>130</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" t="n">
+        <v>405</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Station 3 C material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>500</v>
+      </c>
+      <c r="C36" t="n">
+        <v>159</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Turntable mechanism alarm</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>412</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Robot 1# failed to pick up material or material sensor anbnoral</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>103</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cache crest up  abnormal sensing error/I4.0-Q6.0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>109</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1# crest up  abnormal sensing error/I4.6-Q6.4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>130</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>413</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Robot2# failed to pick up material or material sensor anbnoral</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>138</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 2# status does not match with auto status /Q11.0-Q11.1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>320</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Workstation 3 C material sensing abnormality</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>322</v>
+      </c>
+      <c r="C44" t="n">
+        <v>19</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>354</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Station 2 C material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>115</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2# crest up  abnormal sensing error/I5.6-Q7.0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>394</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Station 3 Vehicle in-position sensor error/I7.1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>49</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Wetting  Components error</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>953</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="n">
+        <v>111</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1# crest state does not match the automatic state/Q6.4-Q6.5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="n">
+        <v>303</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="n">
+        <v>950</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="n">
+        <v>114</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2# stopper  status does not match with auto status/Q6.6-Q6.7</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" t="n">
+        <v>117</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2# crest state does not match the automatic state/Q7.0-Q7.1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" t="n">
+        <v>305</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" t="n">
+        <v>954</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" t="n">
+        <v>323</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" t="n">
+        <v>302</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Work station 1 C position sensor error</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B59" t="n">
+        <v>355</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Station 2 D material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Emergency stop button 1# press error</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B61" t="n">
+        <v>121</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3# crest up  abnormal sensing error/I6.5-Q7.4</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B62" t="n">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4# stopper down  abnormal sensing error/I7.0-Q7.7</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>112</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2# stopper up  abnormal sensing error /I5.1-Q6.6</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>303</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Work station 1 B position sensor error</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>323</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="n">
+        <v>136</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Robot loading vacuum 1# is abnormal!</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="n">
+        <v>139</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Robot loading vacuum 2# is abnormal!</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>302</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Work station 1 A position sensor error</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B69" t="n">
+        <v>300</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Holding Jig A position sensor error</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="n">
+        <v>322</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B71" t="n">
+        <v>305</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>301</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Holding Jig B position sensor error</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="n">
+        <v>103</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cache crest up  abnormal sensing error/I4.0-Q6.0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B74" t="n">
+        <v>328</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>bot initialization timeout failure!</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B75" t="n">
+        <v>132</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1# robot loading  does not match the automatic state /Q10.2-Q10.3</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B76" t="n">
+        <v>304</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Work station 1 C position sensor error</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B77" t="n">
+        <v>135</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2# robot loading  does not match the automatic state/Q10.4-Q10.5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B78" t="n">
+        <v>166</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CLAMP O-ring  cylinder clamp  abnormal sensing error/I7.0-Q7.6</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B79" t="n">
+        <v>141</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Robot loading vacuum 2# is abnormal!</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B80" t="n">
+        <v>138</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Robot loading vacuum 1# is abnormal!</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B81" t="n">
+        <v>113</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2# stopper down  abnormal sensing error/I5.2-Q6.7</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>313</v>
+      </c>
+      <c r="C82" t="n">
+        <v>172</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Station No.2 The material at position A of the tooling board has been assembled, and the material is sensed at position A (the material has not been taken away)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>322</v>
+      </c>
+      <c r="C83" t="n">
+        <v>59</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A material does not sense the Mouthpiece, please put the Mouthpiece into the TANK</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="n">
+        <v>312</v>
+      </c>
+      <c r="C84" t="n">
+        <v>16</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Station No.2 The material at position A of the tooling board has been assembled, and the material is sensed at position A (the material has not been taken away)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" t="n">
+        <v>301</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Station No.1 The silicone plug is not sensed at position B of the tooling board</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B86" t="n">
+        <v>300</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Station No.1 The silicone plug is not sensed at position A of the tooling board</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>392</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Station 2 Vehicle in-position sensor error/I6.2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B88" t="n">
+        <v>350</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MES has not sent radium engraving data, please check MES status</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="n">
+        <v>371</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Emergency shutdown of robot</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B90" t="n">
+        <v>320</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Station No.3 The tooling board has been assembled at position A, and no material is sensed at position A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B91" t="n">
+        <v>177</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B92" t="n">
+        <v>174</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B93" t="n">
+        <v>126</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>station 3 Blocking cylinder status Manual and
+automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B94" t="n">
+        <v>117</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>station 2 Crest cylinder state Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B95" t="n">
+        <v>364</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TRAY loading and unloading modules Safety grating is blocked, please check</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B96" t="n">
+        <v>172</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B97" t="n">
+        <v>175</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 2# lifting cylinder lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B98" t="n">
+        <v>108</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Mainline block 1# status does not match automatic status</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B99" t="n">
+        <v>186</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station translation cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B100" t="n">
+        <v>148</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Tray clamping 2# cylinder Clamping sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B101" t="n">
+        <v>123</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>station 3 Crest cylinder state Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B102" t="n">
+        <v>120</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>station 2 Blocking cylinder status Manual and
+automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B103" t="n">
+        <v>114</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>station 1 Blocking cylinder status Manual and
+automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B104" t="n">
+        <v>111</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>station 1 Crest cylinder state Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B105" t="n">
+        <v>109</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>station 1 Crest cylinder Upper sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B106" t="n">
+        <v>390</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Station 1 Vehicle in-position sensor error/I5.3</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Cache crest state different from the automatic state</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>382</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>323</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" t="n">
+        <v>400</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Emergency stop button 1# press error</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>304</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Work station 1 C position sensor error</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" t="n">
+        <v>354</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Station 2 C material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B113" t="n">
+        <v>184</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>E-liquid lifting cylinder Down  abnormal sensing error/I11.5-Q11.5</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B114" t="n">
+        <v>322</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B115" t="n">
+        <v>135</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2# robot loading  does not match the automatic state/Q10.4-Q10.5</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B116" t="n">
+        <v>160</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tank positioning lifting cylinder down abnormal sensing error/I12.1-Q12.1</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B117" t="n">
+        <v>190</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>The press mouthpiece lifting cylinder down abnormal sensing error</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="n">
+        <v>305</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B119" t="n">
+        <v>132</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1# robot loading  does not match the automatic state /Q10.2-Q10.3</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B120" t="n">
+        <v>355</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Station 2 D material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B121" t="n">
+        <v>420</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>A-position pump liquid level sensor does not sense   E-liquid /I0.4</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B122" t="n">
+        <v>421</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>B-position pump liquid level sensor does not sense   E-liquid /I0.5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B123" t="n">
+        <v>300</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Cache station A material sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B124" t="n">
+        <v>303</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Work station 1 B position sensor error</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>136</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper vacuum generator Suction vacuum sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>133</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper lift cylinder Lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" t="n">
+        <v>371</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Emergency shutdown of robot</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" t="n">
+        <v>139</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper vacuum generator Suction vacuum sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="n">
+        <v>179</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Vibration plate distributing cylinder retracts sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Robot 1# clamping jaw Abnormal material picking</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" t="n">
+        <v>320</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>station 3 A material sensing abnormality</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B132" t="n">
+        <v>178</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Vibrating plate distributing cylinder extends out of the sensor abnormally</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B133" t="n">
+        <v>130</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper lift cylinder Lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" t="n">
+        <v>180</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>The vibrating plate distributing cylinder does not match the automatic state</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B135" t="n">
+        <v>174</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NG_Sampling check the lifting cylinder does not match the automatic state</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B136" t="n">
+        <v>173</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>NG_Sampling check the sensor on the lifting cylinder is abnormal</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B137" t="n">
+        <v>392</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Station 2 Vehicle in-position sensor error/I6.2</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B138" t="n">
+        <v>165</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Station 2 positioning lifting cylinder does not match the automatic state</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B139" t="n">
+        <v>31</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Robot 2# clamping jaw Abnormal material picking</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B140" t="n">
+        <v>135</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper lift cylinder Manual state does not match with automatic state</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B141" t="n">
+        <v>168</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Station 2 positioning and clamping cylinder does not match the automatic state</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B142" t="n">
+        <v>134</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper lift cylinder Upper sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B143" t="n">
+        <v>132</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper lift cylinder Manual state does not match with automatic state</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B144" t="n">
+        <v>131</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper lift cylinder Upper sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B145" t="n">
+        <v>324</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>station 3 A material clamping failure</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B146" t="n">
+        <v>325</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>station 3 B material clamping failure</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B147" t="n">
+        <v>330</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Please push the sampling box into the equipment
+(if you need to pull out the sampling box, please first press: REQUEST OPEN button,
+after pulling out the sampling box)</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B148" t="n">
+        <v>103</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>station 1 Crest cylinder Upper sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B149" t="n">
+        <v>109</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>station 2 Crest cylinder Upper sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B150" t="n">
+        <v>170</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Resistance detection lift cylinder Upper sensing anomaly</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>330</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Please push the sampling box into the equipment
+(if you need to pull out the sampling box, please first press: REQUEST OPEN button,
+after pulling out the sampling box)</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>323</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1# Robot emergency stop alarm!</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" t="n">
+        <v>70</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>10</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Emergency stop</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" t="n">
+        <v>403</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>10</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2# robot emergency stop alarm!</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" t="n">
+        <v>302</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>10</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Station 1 Robot did not take A material, 
+please manually take it away and put it into the weighing station.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" t="n">
+        <v>303</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>10</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Station 1 Robot did not take B material, 
+please manually take it away and put it into the weighing station.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alarm_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>WORKCELL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>alarm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>394</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carrier 2# product assembly anomaly, please check the carrier and gripper!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>303</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flexible vibrating plate material preparation timeout</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2# gripper feeding is abnormal. Press the start button after 
+feeding level processing to continue operation.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>364</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The number of consecutive NGs has arrived, please check the equipment!</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>175</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1# gripper cylinder clamping abnormal sensing error/I17.1-Q17.1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>406</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Station 3 D material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>135</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 1# status does not match with auto status /Q10.6-Q10.7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>138</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 2# status does not match with auto status /Q11.0-Q11.1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>310</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1# clamping gripper take material abnormally, first to Feed take material position to deal with and then press start button can continue to run.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>500</v>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Turntable mechanism alarm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>386</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D position camera photo timeout</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Thread body pin positioning D position cylinder clamping induction abnormal</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>130</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>412</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Robot 1# failed to pick up material or material sensor anbnoral</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>172</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Thread body pin positioning C position cylinder clamping induction abnormal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1# robot loading up abnormal sensing error /Q10.2-I10.2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>129</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1# robot loading  does not match the automatic state /Q10.2-Q10.3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>131</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2# robot loading up abnormal sensing error/Q10.4-I10.4</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>132</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2# robot loading  does not match the automatic state/Q10.4-Q10.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>133</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Robot gripper cylinder 1# clamping abnormal sensing error/I10.6-Q10.6</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>135</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 1# status does not match with auto status /Q10.6-Q10.7</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>138</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 2# status does not match with auto status /Q11.0-Q11.1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n">
+        <v>170</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" t="n">
+        <v>109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1# crest up  abnormal sensing error/I4.6-Q6.4</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" t="n">
+        <v>127</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1# robot loading down abnormal sensing error  /Q10.3-I10.3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>322</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Wetting  Components error</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>954</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>323</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>394</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Station 3 Vehicle in-position sensor error/I7.1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>354</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Station 2 C material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="n">
+        <v>26</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Emergency stop button 1# press error</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="n">
+        <v>955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" t="n">
+        <v>121</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3# crest up  abnormal sensing error/I6.5-Q7.4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="n">
+        <v>952</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B38" t="n">
+        <v>759</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B39" t="n">
+        <v>950</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B40" t="n">
+        <v>111</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1# crest state does not match the automatic state/Q6.4-Q6.5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B41" t="n">
+        <v>109</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1# crest up  abnormal sensing error/I4.6-Q6.4</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B42" t="n">
+        <v>704</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B43" t="n">
+        <v>709</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B44" t="n">
+        <v>705</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B45" t="n">
+        <v>65</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Stepper motor 3 control abnormal alarm</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B46" t="n">
+        <v>789</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B47" t="n">
+        <v>707</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B48" t="n">
+        <v>328</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>bot initialization timeout failure!</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B49" t="n">
+        <v>711</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B50" t="n">
+        <v>69</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Stepper motor 4 control abnormal alarm</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B51" t="n">
+        <v>708</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B52" t="n">
+        <v>123</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3# crest state does not match the automatic state/Q7.4-Q7.5</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>106</v>
+      </c>
+      <c r="C53" t="n">
+        <v>61</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1# stopper up  abnormal sensing error /I4.2-Q6.2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>105</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cache crest  status does not match with auto status/Q6.0-Q6.1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>304</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Work station 1 C position sensor error</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="n">
+        <v>305</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>301</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Holding Jig B position sensor error</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>108</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1# stopper  status does not match with auto status/Q6.2-Q6.3</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" t="n">
+        <v>300</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Holding Jig A position sensor error</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>323</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>114</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2# stopper  status does not match with auto status/Q6.6-Q6.7</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" t="n">
+        <v>139</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Robot loading vacuum 2# is abnormal!</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" t="n">
+        <v>302</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Work station 1 A position sensor error</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" t="n">
+        <v>103</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cache crest up  abnormal sensing error/I4.0-Q6.0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B65" t="n">
+        <v>390</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Station 1 Vehicle in-position sensor error/I5.3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B66" t="n">
+        <v>136</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Robot loading vacuum 1# is abnormal!</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B67" t="n">
+        <v>303</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Work station 1 B position sensor error</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>313</v>
+      </c>
+      <c r="C68" t="n">
+        <v>81</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Station No.2 The material at position A of the tooling board has been assembled, and the material is sensed at position A (the material has not been taken away)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>322</v>
+      </c>
+      <c r="C69" t="n">
+        <v>55</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>A material does not sense the Mouthpiece, please put the Mouthpiece into the TANK</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>312</v>
+      </c>
+      <c r="C70" t="n">
+        <v>19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Station No.2 The material at position A of the tooling board has been assembled, and the material is sensed at position A (the material has not been taken away)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="n">
+        <v>350</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MES has not sent radium engraving data, please check MES status</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" t="n">
+        <v>392</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Station 2 Vehicle in-position sensor error/I6.2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="n">
+        <v>135</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper status Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B74" t="n">
+        <v>109</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>station 1 Crest cylinder Upper sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="n">
+        <v>180</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# gripper cylinder status
+Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" t="n">
+        <v>138</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper status Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B77" t="n">
+        <v>141</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="n">
+        <v>144</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" t="n">
+        <v>172</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B80" t="n">
+        <v>177</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B81" t="n">
+        <v>174</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B82" t="n">
+        <v>301</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Station No.1 The silicone plug is not sensed at position B of the tooling board</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B83" t="n">
+        <v>132</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper lift cylinder Manual state does not match with automatic state</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>129</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper lift cylinder Manual state does not match with automatic state</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B85" t="n">
+        <v>371</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Emergency shutdown of robot</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B86" t="n">
+        <v>183</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 2# gripper cylinder status
+Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>304</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Work station 1 C position sensor error</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="n">
+        <v>160</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Tank positioning lifting cylinder down abnormal sensing error/I12.1-Q12.1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>322</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>382</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B91" t="n">
+        <v>323</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>400</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Emergency stop button 1# press error</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B93" t="n">
+        <v>111</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1# crest state does not match the automatic state/Q6.4-Q6.5</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B94" t="n">
+        <v>184</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>E-liquid lifting cylinder Down  abnormal sensing error/I11.5-Q11.5</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>371</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Emergency shutdown of robot</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>321</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>station 3 B material sensing abnormality</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" t="n">
+        <v>164</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Station 2 positioning the lower sensor of the lifting cylinder is abnormal</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="n">
+        <v>325</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>station 3 B material clamping failure</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B99" t="n">
+        <v>136</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper vacuum generator Suction vacuum sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="n">
+        <v>330</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Please push the sampling box into the equipment
+(if you need to pull out the sampling box, please first press: REQUEST OPEN button,
+after pulling out the sampling box)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B101" t="n">
+        <v>180</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>The vibrating plate distributing cylinder does not match the automatic state</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>330</v>
+      </c>
+      <c r="C102" t="n">
+        <v>33</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Please push the sampling box into the equipment
+(if you need to pull out the sampling box, please first press: REQUEST OPEN button,
+after pulling out the sampling box)</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>467</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>The robot at the right station of the visual inspection station completes reclaiming
+and the reclaiming fails at position B</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="n">
+        <v>456</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>A product weighing station product material is continuously NG
+Please check 8# oil injection station</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>452</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1#Robot did not discharge the material to the weighing station
+and the material was detected at position A</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B106" t="n">
+        <v>453</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1#Robot did not discharge the material to the weighing station
+and the material was detected at position B</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B107" t="n">
+        <v>403</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2# robot emergency stop alarm!</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B108" t="n">
+        <v>70</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Emergency stop</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B109" t="n">
+        <v>323</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1# Robot emergency stop alarm!</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B110" t="n">
+        <v>471</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Visual photo feedback timeout</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B111" t="n">
+        <v>130</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1# robot A# gripper lift cylinder Lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B112" t="n">
+        <v>324</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1# The robot is malfunctioning!</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B113" t="n">
+        <v>184</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Unloading vacuum1 on error</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B114" t="n">
+        <v>133</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1# robot B# gripper lift cylinder Lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B115" t="n">
+        <v>303</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Station 1 Robot did not take B material, 
+please manually take it away and put it into the weighing station.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B116" t="n">
+        <v>302</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Station 1 Robot did not take A material, 
+please manually take it away and put it into the weighing station.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B117" t="n">
+        <v>326</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1# Robot not powered up fault!</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B118" t="n">
+        <v>406</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2# robot not powered up fault!</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B119" t="n">
+        <v>404</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>10</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2# Robot failure in progress!</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B120" t="n">
+        <v>492</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alarm_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>WORKCELL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>alarm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>395</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carrier 2# product assembly anomaly, please check the carrier and gripper!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>311</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2# gripper feeding is abnormal. Press the start button after 
+feeding level processing to continue operation.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flexible vibrating plate material preparation timeout</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>364</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The number of consecutive NGs has arrived, please check the equipment!</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>310</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1# clamping gripper take material abnormally, first to Feed take material position to deal with and then press start button can continue to run.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Robot gripper cylinder 2# clamping abnormal sensing error/I11.0-Q11.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>406</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Station 3 D material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>175</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1# gripper cylinder clamping abnormal sensing error/I17.1-Q17.1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>144</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Camera moves cylinder status does not match with auto status/Q11.6-Q11.7</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>132</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2# robot loading  does not match the automatic state/Q10.4-Q10.5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>187</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1# gripper cylinder clamping abnormal sensing error/I16.5-Q16.5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>138</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 2# status does not match with auto status /Q11.0-Q11.1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>135</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 1# status does not match with auto status /Q10.6-Q10.7</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>140</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lead straightening lift cylinder up abnormal sensing error/I11.5-Q11.4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>129</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1# robot loading  does not match the automatic state /Q10.2-Q10.3</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>405</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Station 3 C material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>127</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1# robot loading down abnormal sensing error  /Q10.3-I10.3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Positioning seal up abnormal sensing error/I14.2/14.3-Q14.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>169</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Positioning lift up extended/I15.1-Q14.5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1# crest up  abnormal sensing error/I4.6-Q6.4</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>177</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1# gripper lift cylinder status does not match with auto status/Q17.0-Q17.1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>103</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cache crest up  abnormal sensing error/I4.0-Q6.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n">
+        <v>189</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1# gripper lift cylinder status does not match with auto status/Q16.4-Q16.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>194</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1#Lead straightening lift cylinder up abnormal sensing error/I11.5-Q15.4</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>500</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Turntable mechanism alarm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>130</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>135</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 1# status does not match with auto status /Q10.6-Q10.7</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>132</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2# robot loading  does not match the automatic state/Q10.4-Q10.5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>138</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>The state of robot gripper cylinder 2# status does not match with auto status /Q11.0-Q11.1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>413</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Robot2# failed to pick up material or material sensor anbnoral</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="n">
+        <v>129</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1# robot loading  does not match the automatic state /Q10.2-Q10.3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="n">
+        <v>136</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Robot gripper cylinder 2# clamping abnormal sensing error/I11.0-Q11.0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" t="n">
+        <v>406</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>D_ material sensor anomaly</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="n">
+        <v>172</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Thread body pin positioning C position cylinder clamping induction abnormal</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Material resistance detection continuous NG, 
+please check the equipment and material status</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>322</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>49</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Wetting  Components error</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>950</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>305</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>303</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>323</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>133</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="n">
+        <v>394</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Station 3 Vehicle in-position sensor error/I7.1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>792</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Emergency stop button 1# press error</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="n">
+        <v>798</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="n">
+        <v>354</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Station 2 C material sensor is abnormal</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B51" t="n">
+        <v>780</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="n">
+        <v>955</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>303</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Work station 1 B position sensor error</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>106</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1# stopper up  abnormal sensing error /I4.2-Q6.2</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>166</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>CLAMP O-ring  cylinder clamp  abnormal sensing error/I7.0-Q7.6</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="n">
+        <v>305</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Work station 1 D position sensor error</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>322</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>302</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Work station 1 A position sensor error</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" t="n">
+        <v>304</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Work station 1 C position sensor error</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>323</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Robot Emergency stop error</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>133</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2# robot loading down abnormal sensing error  /Q10.5-I10.5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" t="n">
+        <v>301</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Holding Jig B position sensor error</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>313</v>
+      </c>
+      <c r="C63" t="n">
+        <v>104</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Station No.2 The material at position A of the tooling board has been assembled, and the material is sensed at position A (the material has not been taken away)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>322</v>
+      </c>
+      <c r="C64" t="n">
+        <v>55</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>A material does not sense the Mouthpiece, please put the Mouthpiece into the TANK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>312</v>
+      </c>
+      <c r="C65" t="n">
+        <v>37</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Station No.2 The material at position A of the tooling board has been assembled, and the material is sensed at position A (the material has not been taken away)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="n">
+        <v>301</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Station No.1 The silicone plug is not sensed at position B of the tooling board</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="n">
+        <v>350</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MES has not sent radium engraving data, please check MES status</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>371</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Emergency shutdown of robot</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B69" t="n">
+        <v>172</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="n">
+        <v>364</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TRAY loading and unloading modules Safety grating is blocked, please check</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B71" t="n">
+        <v>174</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>300</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Station No.1 The silicone plug is not sensed at position A of the tooling board</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="n">
+        <v>177</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# lifting cylinder state
+Manual and automatic state do not match</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B74" t="n">
+        <v>180</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Laser engraving transplanting station 1# gripper cylinder status
+Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>382</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>160</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Tank positioning lifting cylinder down abnormal sensing error/I12.1-Q12.1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>322</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Overtime alarm for flexible vibration plate preparation!</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="n">
+        <v>190</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>The press mouthpiece lifting cylinder down abnormal sensing error</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>133</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper lift cylinder Lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>325</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>station 3 B material clamping failure</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>392</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Station 2 Vehicle in-position sensor error/I6.2</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="n">
+        <v>135</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper lift cylinder Manual state does not match with automatic state</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" t="n">
+        <v>136</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper vacuum generator Suction vacuum sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="n">
+        <v>330</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Please push the sampling box into the equipment
+(if you need to pull out the sampling box, please first press: REQUEST OPEN button,
+after pulling out the sampling box)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B85" t="n">
+        <v>396</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Cacke Station  Vehicle in-position sensor error/I4.4</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" t="n">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NG_Sampling check the sensor on the lifting cylinder is abnormal</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" t="n">
+        <v>371</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Emergency shutdown of robot</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B88" t="n">
+        <v>311</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Station 2 B material induction is abnormal</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B89" t="n">
+        <v>138</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Robot 1# gripper vacuum generator status
+Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" t="n">
+        <v>141</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Robot 2# gripper vacuum generator status
+Manual and automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>330</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Please push the sampling box into the equipment
+(if you need to pull out the sampling box, please first press: REQUEST OPEN button,
+after pulling out the sampling box)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>184</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Unloading vacuum1 on error</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="n">
+        <v>107</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Main line stopper 1# down sensor error</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="n">
+        <v>323</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1# Robot emergency stop alarm!</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>113</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>station 1 Blocking cylinder Lower sensor abnormal</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B96" t="n">
+        <v>114</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>station 1 Blocking cylinder status Manual and
+automatic status do not match</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B97" t="n">
+        <v>403</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2# robot emergency stop alarm!</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" t="n">
+        <v>70</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Emergency stop</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B99" t="n">
+        <v>108</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Mainline block 1# status does not match automatic status</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B100" t="n">
+        <v>461</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>No material is detected at position B of the right station of the visual inspection module</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
